--- a/researching/data_and_code/data.xlsx
+++ b/researching/data_and_code/data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Transcend/大学/卒業研究(絶対に消したらダメ！！)/現在使用しているdir(絶対に消したらダメ)/データ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asahi/Documents/graduation_research/researching/data_and_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66D57F1-E844-AC46-8499-E5CB22F02767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE8870-3851-8043-AC66-AFC6F2E63051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16020"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ダウンロードした時刻：2021/11/22 12:52:35</t>
   </si>
@@ -51,12 +52,59 @@
   <si>
     <t>円/kg</t>
   </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>average_temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>average_daily_max_temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>average_daily_min_temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>max_temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>min_temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>total_precipitation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sunlight_hours</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>yen_kg</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="###\ ###\ ##0"/>
+    <numFmt numFmtId="178" formatCode="#\ ###\ ##0"/>
+    <numFmt numFmtId="179" formatCode="_ * ###,###,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * ###,###,##0_ ;_ * &quot; - &quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +263,38 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -398,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -513,8 +593,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,8 +841,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,8 +856,69 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="43" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="43" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="14" xfId="43" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="43" applyBorder="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="16" xfId="43" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="43" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -686,6 +951,7 @@
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="桁区切り" xfId="42" builtinId="6"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -695,6 +961,7 @@
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 3" xfId="43" xr:uid="{446F0B7C-DD00-8A47-B05A-2C7A35EAB246}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,10 +1273,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6091,4 +6358,5103 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D3F937-7DF7-1F46-ABA0-A0E8A09F5323}">
+  <dimension ref="A1:K145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44204</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-13.1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9">
+        <v>169.2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>726</v>
+      </c>
+      <c r="K2" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44235</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-2.7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-12.8</v>
+      </c>
+      <c r="H3" s="9">
+        <v>35</v>
+      </c>
+      <c r="I3" s="9">
+        <v>191.5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>678</v>
+      </c>
+      <c r="K3" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44263</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9">
+        <v>-8.4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43</v>
+      </c>
+      <c r="I4" s="9">
+        <v>189.6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>814</v>
+      </c>
+      <c r="K4" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44294</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>26.2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>123</v>
+      </c>
+      <c r="I5" s="9">
+        <v>169.9</v>
+      </c>
+      <c r="J5" s="10">
+        <v>676</v>
+      </c>
+      <c r="K5" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44324</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F6" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>134</v>
+      </c>
+      <c r="I6" s="9">
+        <v>159</v>
+      </c>
+      <c r="J6" s="10">
+        <v>832</v>
+      </c>
+      <c r="K6" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44355</v>
+      </c>
+      <c r="C7" s="9">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H7" s="9">
+        <v>175.5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>115.7</v>
+      </c>
+      <c r="J7" s="10">
+        <v>752</v>
+      </c>
+      <c r="K7" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44385</v>
+      </c>
+      <c r="C8" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>34.9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>97</v>
+      </c>
+      <c r="I8" s="9">
+        <v>164.1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>811</v>
+      </c>
+      <c r="K8" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="9">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="E9" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="H9" s="9">
+        <v>153.5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>163</v>
+      </c>
+      <c r="J9" s="10">
+        <v>822</v>
+      </c>
+      <c r="K9" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44447</v>
+      </c>
+      <c r="C10" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>29.8</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>102.5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>129</v>
+      </c>
+      <c r="J10" s="10">
+        <v>740</v>
+      </c>
+      <c r="K10" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44477</v>
+      </c>
+      <c r="C11" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="F11" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>48.5</v>
+      </c>
+      <c r="I11" s="9">
+        <v>158.9</v>
+      </c>
+      <c r="J11" s="10">
+        <v>677</v>
+      </c>
+      <c r="K11" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44508</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9">
+        <v>148.5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>486</v>
+      </c>
+      <c r="K12" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44538</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>-9.6</v>
+      </c>
+      <c r="H13" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="I13" s="9">
+        <v>204.9</v>
+      </c>
+      <c r="J13" s="10">
+        <v>695</v>
+      </c>
+      <c r="K13" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44205</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-6.4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>38.5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>190.4</v>
+      </c>
+      <c r="J14" s="12">
+        <v>610</v>
+      </c>
+      <c r="K14" s="13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44236</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-4.3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>-10.9</v>
+      </c>
+      <c r="H15" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>159</v>
+      </c>
+      <c r="J15" s="12">
+        <v>770</v>
+      </c>
+      <c r="K15" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44264</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-2.4</v>
+      </c>
+      <c r="F16" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-6</v>
+      </c>
+      <c r="H16" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>176.4</v>
+      </c>
+      <c r="J16" s="12">
+        <v>740</v>
+      </c>
+      <c r="K16" s="13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44295</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="D17" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="F17" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>59</v>
+      </c>
+      <c r="I17" s="9">
+        <v>246.8</v>
+      </c>
+      <c r="J17" s="12">
+        <v>477</v>
+      </c>
+      <c r="K17" s="13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44325</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="E18" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>31.3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>83.5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>164.6</v>
+      </c>
+      <c r="J18" s="12">
+        <v>639</v>
+      </c>
+      <c r="K18" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44356</v>
+      </c>
+      <c r="C19" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="F19" s="9">
+        <v>31.5</v>
+      </c>
+      <c r="G19" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="J19" s="12">
+        <v>881</v>
+      </c>
+      <c r="K19" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44386</v>
+      </c>
+      <c r="C20" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="E20" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>33.6</v>
+      </c>
+      <c r="G20" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="H20" s="9">
+        <v>122.5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>98.6</v>
+      </c>
+      <c r="J20" s="12">
+        <v>828</v>
+      </c>
+      <c r="K20" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44417</v>
+      </c>
+      <c r="C21" s="9">
+        <v>22.7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G21" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="I21" s="9">
+        <v>174.7</v>
+      </c>
+      <c r="J21" s="12">
+        <v>850</v>
+      </c>
+      <c r="K21" s="13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44448</v>
+      </c>
+      <c r="C22" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>29.3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>152.6</v>
+      </c>
+      <c r="J22" s="12">
+        <v>892</v>
+      </c>
+      <c r="K22" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44478</v>
+      </c>
+      <c r="C23" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="E23" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="F23" s="9">
+        <v>22.8</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>146</v>
+      </c>
+      <c r="I23" s="9">
+        <v>169.5</v>
+      </c>
+      <c r="J23" s="12">
+        <v>618</v>
+      </c>
+      <c r="K23" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44509</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>26</v>
+      </c>
+      <c r="G24" s="9">
+        <v>-3.8</v>
+      </c>
+      <c r="H24" s="9">
+        <v>81.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="J24" s="12">
+        <v>508</v>
+      </c>
+      <c r="K24" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44539</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-3.4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9">
+        <v>-10.4</v>
+      </c>
+      <c r="H25" s="9">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9">
+        <v>189.9</v>
+      </c>
+      <c r="J25" s="12">
+        <v>794</v>
+      </c>
+      <c r="K25" s="13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44206</v>
+      </c>
+      <c r="C26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-6.9</v>
+      </c>
+      <c r="F26" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-13.2</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="9">
+        <v>199.4</v>
+      </c>
+      <c r="J26" s="14">
+        <v>673</v>
+      </c>
+      <c r="K26" s="15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44237</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F27" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="G27" s="9">
+        <v>-11.7</v>
+      </c>
+      <c r="H27" s="9">
+        <v>68.5</v>
+      </c>
+      <c r="I27" s="9">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="J27" s="14">
+        <v>723</v>
+      </c>
+      <c r="K27" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44265</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="F28" s="9">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9">
+        <v>-5.8</v>
+      </c>
+      <c r="H28" s="9">
+        <v>84.5</v>
+      </c>
+      <c r="I28" s="9">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="J28" s="14">
+        <v>802</v>
+      </c>
+      <c r="K28" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44296</v>
+      </c>
+      <c r="C29" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>13.9</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>24.1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-4.2</v>
+      </c>
+      <c r="H29" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>181.2</v>
+      </c>
+      <c r="J29" s="14">
+        <v>480</v>
+      </c>
+      <c r="K29" s="15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44326</v>
+      </c>
+      <c r="C30" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>21.4</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="F30" s="9">
+        <v>30.4</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="9">
+        <v>72</v>
+      </c>
+      <c r="I30" s="9">
+        <v>223</v>
+      </c>
+      <c r="J30" s="14">
+        <v>610</v>
+      </c>
+      <c r="K30" s="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <v>44357</v>
+      </c>
+      <c r="C31" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="D31" s="9">
+        <v>26.8</v>
+      </c>
+      <c r="E31" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="F31" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="G31" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="H31" s="9">
+        <v>213.5</v>
+      </c>
+      <c r="I31" s="9">
+        <v>175</v>
+      </c>
+      <c r="J31" s="14">
+        <v>806</v>
+      </c>
+      <c r="K31" s="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>44387</v>
+      </c>
+      <c r="C32" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="E32" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G32" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H32" s="9">
+        <v>284</v>
+      </c>
+      <c r="I32" s="9">
+        <v>172.4</v>
+      </c>
+      <c r="J32" s="14">
+        <v>835</v>
+      </c>
+      <c r="K32" s="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>44418</v>
+      </c>
+      <c r="C33" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>32</v>
+      </c>
+      <c r="E33" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>35.5</v>
+      </c>
+      <c r="G33" s="9">
+        <v>19</v>
+      </c>
+      <c r="H33" s="9">
+        <v>79.5</v>
+      </c>
+      <c r="I33" s="9">
+        <v>211.3</v>
+      </c>
+      <c r="J33" s="14">
+        <v>961</v>
+      </c>
+      <c r="K33" s="15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8">
+        <v>44449</v>
+      </c>
+      <c r="C34" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D34" s="9">
+        <v>26.7</v>
+      </c>
+      <c r="E34" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="F34" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G34" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H34" s="9">
+        <v>159.5</v>
+      </c>
+      <c r="I34" s="9">
+        <v>164.8</v>
+      </c>
+      <c r="J34" s="14">
+        <v>965</v>
+      </c>
+      <c r="K34" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>44479</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="F35" s="9">
+        <v>24.9</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="9">
+        <v>86</v>
+      </c>
+      <c r="I35" s="9">
+        <v>95.4</v>
+      </c>
+      <c r="J35" s="14">
+        <v>619</v>
+      </c>
+      <c r="K35" s="15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>44510</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D36" s="9">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="F36" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-5.3</v>
+      </c>
+      <c r="H36" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>187.3</v>
+      </c>
+      <c r="J36" s="14">
+        <v>599</v>
+      </c>
+      <c r="K36" s="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>44540</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D37" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="E37" s="9">
+        <v>-2.8</v>
+      </c>
+      <c r="F37" s="9">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9">
+        <v>-8.1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>38</v>
+      </c>
+      <c r="I37" s="9">
+        <v>198.4</v>
+      </c>
+      <c r="J37" s="14">
+        <v>856</v>
+      </c>
+      <c r="K37" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8">
+        <v>44207</v>
+      </c>
+      <c r="C38" s="9">
+        <v>-3.6</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F38" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-13.9</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="9">
+        <v>218.1</v>
+      </c>
+      <c r="J38" s="16">
+        <v>663</v>
+      </c>
+      <c r="K38" s="17">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>44238</v>
+      </c>
+      <c r="C39" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="D39" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="E39" s="9">
+        <v>-6.4</v>
+      </c>
+      <c r="F39" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-12.5</v>
+      </c>
+      <c r="H39" s="9">
+        <v>49</v>
+      </c>
+      <c r="I39" s="9">
+        <v>188.8</v>
+      </c>
+      <c r="J39" s="16">
+        <v>559</v>
+      </c>
+      <c r="K39" s="17">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>44266</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="F40" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="G40" s="9">
+        <v>-9.4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>47</v>
+      </c>
+      <c r="I40" s="9">
+        <v>220.2</v>
+      </c>
+      <c r="J40" s="16">
+        <v>904</v>
+      </c>
+      <c r="K40" s="17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>44297</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D41" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="9">
+        <v>26.3</v>
+      </c>
+      <c r="G41" s="9">
+        <v>-7.6</v>
+      </c>
+      <c r="H41" s="9">
+        <v>38.5</v>
+      </c>
+      <c r="I41" s="9">
+        <v>224.4</v>
+      </c>
+      <c r="J41" s="16">
+        <v>756</v>
+      </c>
+      <c r="K41" s="17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8">
+        <v>44327</v>
+      </c>
+      <c r="C42" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F42" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H42" s="9">
+        <v>224.5</v>
+      </c>
+      <c r="I42" s="9">
+        <v>185.5</v>
+      </c>
+      <c r="J42" s="16">
+        <v>825</v>
+      </c>
+      <c r="K42" s="17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
+        <v>44358</v>
+      </c>
+      <c r="C43" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="D43" s="9">
+        <v>25.7</v>
+      </c>
+      <c r="E43" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="F43" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G43" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="H43" s="9">
+        <v>86.5</v>
+      </c>
+      <c r="I43" s="9">
+        <v>141.5</v>
+      </c>
+      <c r="J43" s="16">
+        <v>1057</v>
+      </c>
+      <c r="K43" s="17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>44388</v>
+      </c>
+      <c r="C44" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="D44" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="E44" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="F44" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G44" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="H44" s="9">
+        <v>95</v>
+      </c>
+      <c r="I44" s="9">
+        <v>175.6</v>
+      </c>
+      <c r="J44" s="16">
+        <v>1286</v>
+      </c>
+      <c r="K44" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>44419</v>
+      </c>
+      <c r="C45" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="D45" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="E45" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="F45" s="9">
+        <v>36</v>
+      </c>
+      <c r="G45" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H45" s="9">
+        <v>131.5</v>
+      </c>
+      <c r="I45" s="9">
+        <v>181.2</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1293</v>
+      </c>
+      <c r="K45" s="17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>44450</v>
+      </c>
+      <c r="C46" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="D46" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="F46" s="9">
+        <v>31.8</v>
+      </c>
+      <c r="G46" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H46" s="9">
+        <v>158.5</v>
+      </c>
+      <c r="I46" s="9">
+        <v>176.9</v>
+      </c>
+      <c r="J46" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="17">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>44480</v>
+      </c>
+      <c r="C47" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="F47" s="9">
+        <v>25.7</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I47" s="9">
+        <v>180.5</v>
+      </c>
+      <c r="J47" s="16">
+        <v>766</v>
+      </c>
+      <c r="K47" s="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>44511</v>
+      </c>
+      <c r="C48" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="D48" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F48" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="G48" s="9">
+        <v>-4.5</v>
+      </c>
+      <c r="H48" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="I48" s="9">
+        <v>163.4</v>
+      </c>
+      <c r="J48" s="16">
+        <v>547</v>
+      </c>
+      <c r="K48" s="17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
+        <v>44541</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="E49" s="9">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F49" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="G49" s="9">
+        <v>-10.3</v>
+      </c>
+      <c r="H49" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="I49" s="9">
+        <v>192.7</v>
+      </c>
+      <c r="J49" s="16">
+        <v>858</v>
+      </c>
+      <c r="K49" s="17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
+        <v>44208</v>
+      </c>
+      <c r="C50" s="9">
+        <v>-3.2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="E50" s="9">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="F50" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="H50" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="I50" s="9">
+        <v>189.3</v>
+      </c>
+      <c r="J50" s="18">
+        <v>676</v>
+      </c>
+      <c r="K50" s="19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>44239</v>
+      </c>
+      <c r="C51" s="9">
+        <v>-1.9</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9">
+        <v>-7.1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="G51" s="9">
+        <v>-15.7</v>
+      </c>
+      <c r="H51" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="I51" s="9">
+        <v>161</v>
+      </c>
+      <c r="J51" s="18">
+        <v>563</v>
+      </c>
+      <c r="K51" s="19">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>44267</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D52" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="E52" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="F52" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="G52" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>73</v>
+      </c>
+      <c r="I52" s="9">
+        <v>168.1</v>
+      </c>
+      <c r="J52" s="18">
+        <v>806</v>
+      </c>
+      <c r="K52" s="19">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
+        <v>44298</v>
+      </c>
+      <c r="C53" s="9">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="F53" s="9">
+        <v>28</v>
+      </c>
+      <c r="G53" s="9">
+        <v>-6.8</v>
+      </c>
+      <c r="H53" s="9">
+        <v>59</v>
+      </c>
+      <c r="I53" s="9">
+        <v>180.5</v>
+      </c>
+      <c r="J53" s="18">
+        <v>690</v>
+      </c>
+      <c r="K53" s="19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8">
+        <v>44328</v>
+      </c>
+      <c r="C54" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="D54" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="E54" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F54" s="9">
+        <v>26.4</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="9">
+        <v>59</v>
+      </c>
+      <c r="I54" s="9">
+        <v>208.1</v>
+      </c>
+      <c r="J54" s="18">
+        <v>1045</v>
+      </c>
+      <c r="K54" s="19">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8">
+        <v>44359</v>
+      </c>
+      <c r="C55" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D55" s="9">
+        <v>24</v>
+      </c>
+      <c r="E55" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="F55" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="G55" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="H55" s="9">
+        <v>119</v>
+      </c>
+      <c r="I55" s="9">
+        <v>181.3</v>
+      </c>
+      <c r="J55" s="18">
+        <v>1203</v>
+      </c>
+      <c r="K55" s="19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8">
+        <v>44389</v>
+      </c>
+      <c r="C56" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="D56" s="9">
+        <v>29.2</v>
+      </c>
+      <c r="E56" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="F56" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G56" s="9">
+        <v>15</v>
+      </c>
+      <c r="H56" s="9">
+        <v>147</v>
+      </c>
+      <c r="I56" s="9">
+        <v>155.9</v>
+      </c>
+      <c r="J56" s="18">
+        <v>1308</v>
+      </c>
+      <c r="K56" s="19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8">
+        <v>44420</v>
+      </c>
+      <c r="C57" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="D57" s="9">
+        <v>31.6</v>
+      </c>
+      <c r="E57" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F57" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="G57" s="9">
+        <v>16</v>
+      </c>
+      <c r="H57" s="9">
+        <v>69.5</v>
+      </c>
+      <c r="I57" s="9">
+        <v>277.7</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1316</v>
+      </c>
+      <c r="K57" s="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>44451</v>
+      </c>
+      <c r="C58" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="D58" s="9">
+        <v>27.1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="F58" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="G58" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H58" s="9">
+        <v>117</v>
+      </c>
+      <c r="I58" s="9">
+        <v>161</v>
+      </c>
+      <c r="J58" s="18">
+        <v>1379</v>
+      </c>
+      <c r="K58" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>44481</v>
+      </c>
+      <c r="C59" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="D59" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="E59" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="F59" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H59" s="9">
+        <v>69</v>
+      </c>
+      <c r="I59" s="9">
+        <v>172.9</v>
+      </c>
+      <c r="J59" s="18">
+        <v>1033</v>
+      </c>
+      <c r="K59" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8">
+        <v>44512</v>
+      </c>
+      <c r="C60" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="D60" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="E60" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="F60" s="9">
+        <v>19</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-5.7</v>
+      </c>
+      <c r="H60" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="I60" s="9">
+        <v>182.8</v>
+      </c>
+      <c r="J60" s="18">
+        <v>560</v>
+      </c>
+      <c r="K60" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="8">
+        <v>44542</v>
+      </c>
+      <c r="C61" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="E61" s="9">
+        <v>-5.5</v>
+      </c>
+      <c r="F61" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="G61" s="9">
+        <v>-11.5</v>
+      </c>
+      <c r="H61" s="9">
+        <v>16</v>
+      </c>
+      <c r="I61" s="9">
+        <v>186.8</v>
+      </c>
+      <c r="J61" s="18">
+        <v>853</v>
+      </c>
+      <c r="K61" s="19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8">
+        <v>44209</v>
+      </c>
+      <c r="C62" s="9">
+        <v>-2.7</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F62" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G62" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="H62" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="I62" s="9">
+        <v>223</v>
+      </c>
+      <c r="J62" s="18">
+        <v>682</v>
+      </c>
+      <c r="K62" s="19">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="8">
+        <v>44240</v>
+      </c>
+      <c r="C63" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="D63" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E63" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="F63" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="G63" s="9">
+        <v>-15.2</v>
+      </c>
+      <c r="H63" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="I63" s="9">
+        <v>179.8</v>
+      </c>
+      <c r="J63" s="18">
+        <v>725</v>
+      </c>
+      <c r="K63" s="19">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="8">
+        <v>44268</v>
+      </c>
+      <c r="C64" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="D64" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="E64" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="F64" s="9">
+        <v>21.6</v>
+      </c>
+      <c r="G64" s="9">
+        <v>-7.5</v>
+      </c>
+      <c r="H64" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="I64" s="9">
+        <v>229.1</v>
+      </c>
+      <c r="J64" s="18">
+        <v>933</v>
+      </c>
+      <c r="K64" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8">
+        <v>44299</v>
+      </c>
+      <c r="C65" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D65" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="F65" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="G65" s="9">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="H65" s="9">
+        <v>84.5</v>
+      </c>
+      <c r="I65" s="9">
+        <v>227.8</v>
+      </c>
+      <c r="J65" s="18">
+        <v>722</v>
+      </c>
+      <c r="K65" s="19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>44329</v>
+      </c>
+      <c r="C66" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="D66" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="E66" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="F66" s="9">
+        <v>30.4</v>
+      </c>
+      <c r="G66" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="H66" s="9">
+        <v>45</v>
+      </c>
+      <c r="I66" s="9">
+        <v>278.2</v>
+      </c>
+      <c r="J66" s="18">
+        <v>1016</v>
+      </c>
+      <c r="K66" s="19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>44360</v>
+      </c>
+      <c r="C67" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D67" s="9">
+        <v>25.8</v>
+      </c>
+      <c r="E67" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="F67" s="9">
+        <v>31</v>
+      </c>
+      <c r="G67" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="H67" s="9">
+        <v>124</v>
+      </c>
+      <c r="I67" s="9">
+        <v>143.1</v>
+      </c>
+      <c r="J67" s="18">
+        <v>1482</v>
+      </c>
+      <c r="K67" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>44390</v>
+      </c>
+      <c r="C68" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="D68" s="9">
+        <v>30.3</v>
+      </c>
+      <c r="E68" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F68" s="9">
+        <v>35.9</v>
+      </c>
+      <c r="G68" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="H68" s="9">
+        <v>98.5</v>
+      </c>
+      <c r="I68" s="9">
+        <v>190.3</v>
+      </c>
+      <c r="J68" s="18">
+        <v>1580</v>
+      </c>
+      <c r="K68" s="19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8">
+        <v>44421</v>
+      </c>
+      <c r="C69" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="D69" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="E69" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="F69" s="9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G69" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="H69" s="9">
+        <v>97</v>
+      </c>
+      <c r="I69" s="9">
+        <v>219.1</v>
+      </c>
+      <c r="J69" s="18">
+        <v>1637</v>
+      </c>
+      <c r="K69" s="19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="8">
+        <v>44452</v>
+      </c>
+      <c r="C70" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="D70" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="E70" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="F70" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="G70" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="H70" s="9">
+        <v>203</v>
+      </c>
+      <c r="I70" s="9">
+        <v>176.6</v>
+      </c>
+      <c r="J70" s="18">
+        <v>1620</v>
+      </c>
+      <c r="K70" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8">
+        <v>44482</v>
+      </c>
+      <c r="C71" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="D71" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E71" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F71" s="9">
+        <v>28.4</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H71" s="9">
+        <v>170.5</v>
+      </c>
+      <c r="I71" s="9">
+        <v>120.7</v>
+      </c>
+      <c r="J71" s="18">
+        <v>1074</v>
+      </c>
+      <c r="K71" s="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C72" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="D72" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="E72" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="F72" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="G72" s="9">
+        <v>-4.7</v>
+      </c>
+      <c r="H72" s="9">
+        <v>20</v>
+      </c>
+      <c r="I72" s="9">
+        <v>196.6</v>
+      </c>
+      <c r="J72" s="18">
+        <v>732</v>
+      </c>
+      <c r="K72" s="19">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="8">
+        <v>44543</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D73" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="E73" s="9">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F73" s="9">
+        <v>12</v>
+      </c>
+      <c r="G73" s="9">
+        <v>-8.4</v>
+      </c>
+      <c r="H73" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="I73" s="9">
+        <v>198.1</v>
+      </c>
+      <c r="J73" s="18">
+        <v>990</v>
+      </c>
+      <c r="K73" s="19">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8">
+        <v>44210</v>
+      </c>
+      <c r="C74" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E74" s="9">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="F74" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>-12.4</v>
+      </c>
+      <c r="H74" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I74" s="9">
+        <v>207.5</v>
+      </c>
+      <c r="J74" s="18">
+        <v>799</v>
+      </c>
+      <c r="K74" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
+        <v>44241</v>
+      </c>
+      <c r="C75" s="9">
+        <v>-2.4</v>
+      </c>
+      <c r="D75" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="E75" s="9">
+        <v>-8</v>
+      </c>
+      <c r="F75" s="9">
+        <v>18</v>
+      </c>
+      <c r="G75" s="9">
+        <v>-13.2</v>
+      </c>
+      <c r="H75" s="9">
+        <v>87</v>
+      </c>
+      <c r="I75" s="9">
+        <v>174.3</v>
+      </c>
+      <c r="J75" s="18">
+        <v>914</v>
+      </c>
+      <c r="K75" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8">
+        <v>44269</v>
+      </c>
+      <c r="C76" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="D76" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E76" s="9">
+        <v>-2.6</v>
+      </c>
+      <c r="F76" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="G76" s="9">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H76" s="9">
+        <v>46.5</v>
+      </c>
+      <c r="I76" s="9">
+        <v>213.7</v>
+      </c>
+      <c r="J76" s="18">
+        <v>1152</v>
+      </c>
+      <c r="K76" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>44300</v>
+      </c>
+      <c r="C77" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="D77" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="F77" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="G77" s="9">
+        <v>-3.7</v>
+      </c>
+      <c r="H77" s="9">
+        <v>20</v>
+      </c>
+      <c r="I77" s="9">
+        <v>238.9</v>
+      </c>
+      <c r="J77" s="18">
+        <v>920</v>
+      </c>
+      <c r="K77" s="19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>44330</v>
+      </c>
+      <c r="C78" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="D78" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="E78" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="F78" s="9">
+        <v>30.4</v>
+      </c>
+      <c r="G78" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H78" s="9">
+        <v>46</v>
+      </c>
+      <c r="I78" s="9">
+        <v>246.2</v>
+      </c>
+      <c r="J78" s="18">
+        <v>1095</v>
+      </c>
+      <c r="K78" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>44361</v>
+      </c>
+      <c r="C79" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D79" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="E79" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="F79" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="G79" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H79" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="I79" s="9">
+        <v>154</v>
+      </c>
+      <c r="J79" s="18">
+        <v>1436</v>
+      </c>
+      <c r="K79" s="19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8">
+        <v>44391</v>
+      </c>
+      <c r="C80" s="9">
+        <v>23</v>
+      </c>
+      <c r="D80" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="E80" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F80" s="9">
+        <v>34.6</v>
+      </c>
+      <c r="G80" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="H80" s="9">
+        <v>138.5</v>
+      </c>
+      <c r="I80" s="9">
+        <v>197</v>
+      </c>
+      <c r="J80" s="18">
+        <v>1717</v>
+      </c>
+      <c r="K80" s="19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8">
+        <v>44422</v>
+      </c>
+      <c r="C81" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="D81" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="E81" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F81" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="G81" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="H81" s="9">
+        <v>165</v>
+      </c>
+      <c r="I81" s="9">
+        <v>130</v>
+      </c>
+      <c r="J81" s="18">
+        <v>1764</v>
+      </c>
+      <c r="K81" s="19">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8">
+        <v>44453</v>
+      </c>
+      <c r="C82" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="D82" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="E82" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="F82" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="G82" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="H82" s="9">
+        <v>52</v>
+      </c>
+      <c r="I82" s="9">
+        <v>169.2</v>
+      </c>
+      <c r="J82" s="18">
+        <v>1419</v>
+      </c>
+      <c r="K82" s="19">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8">
+        <v>44483</v>
+      </c>
+      <c r="C83" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="D83" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="E83" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="F83" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="G83" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="H83" s="9">
+        <v>160.5</v>
+      </c>
+      <c r="I83" s="9">
+        <v>165.6</v>
+      </c>
+      <c r="J83" s="18">
+        <v>1064</v>
+      </c>
+      <c r="K83" s="19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8">
+        <v>44514</v>
+      </c>
+      <c r="C84" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="D84" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="F84" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G84" s="9">
+        <v>-4.7</v>
+      </c>
+      <c r="H84" s="9">
+        <v>50</v>
+      </c>
+      <c r="I84" s="9">
+        <v>166.5</v>
+      </c>
+      <c r="J84" s="18">
+        <v>821</v>
+      </c>
+      <c r="K84" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>44544</v>
+      </c>
+      <c r="C85" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D85" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E85" s="9">
+        <v>-4.2</v>
+      </c>
+      <c r="F85" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="G85" s="9">
+        <v>-11.6</v>
+      </c>
+      <c r="H85" s="9">
+        <v>37</v>
+      </c>
+      <c r="I85" s="9">
+        <v>171.6</v>
+      </c>
+      <c r="J85" s="18">
+        <v>1187</v>
+      </c>
+      <c r="K85" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8">
+        <v>44211</v>
+      </c>
+      <c r="C86" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="D86" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="E86" s="9">
+        <v>-6.4</v>
+      </c>
+      <c r="F86" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="G86" s="9">
+        <v>-11.6</v>
+      </c>
+      <c r="H86" s="9">
+        <v>27</v>
+      </c>
+      <c r="I86" s="9">
+        <v>187.3</v>
+      </c>
+      <c r="J86" s="18">
+        <v>982</v>
+      </c>
+      <c r="K86" s="19">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8">
+        <v>44242</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0</v>
+      </c>
+      <c r="D87" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E87" s="9">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F87" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="G87" s="9">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H87" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="I87" s="9">
+        <v>165.3</v>
+      </c>
+      <c r="J87" s="18">
+        <v>970</v>
+      </c>
+      <c r="K87" s="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>44270</v>
+      </c>
+      <c r="C88" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D88" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="E88" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F88" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="G88" s="9">
+        <v>-6.2</v>
+      </c>
+      <c r="H88" s="9">
+        <v>33.5</v>
+      </c>
+      <c r="I88" s="9">
+        <v>200.7</v>
+      </c>
+      <c r="J88" s="18">
+        <v>1033</v>
+      </c>
+      <c r="K88" s="19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>44301</v>
+      </c>
+      <c r="C89" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="D89" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="E89" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="F89" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="G89" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H89" s="9">
+        <v>63</v>
+      </c>
+      <c r="I89" s="9">
+        <v>172</v>
+      </c>
+      <c r="J89" s="18">
+        <v>895</v>
+      </c>
+      <c r="K89" s="19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>44331</v>
+      </c>
+      <c r="C90" s="9">
+        <v>17</v>
+      </c>
+      <c r="D90" s="9">
+        <v>24.9</v>
+      </c>
+      <c r="E90" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F90" s="9">
+        <v>31.5</v>
+      </c>
+      <c r="G90" s="9">
+        <v>2</v>
+      </c>
+      <c r="H90" s="9">
+        <v>24</v>
+      </c>
+      <c r="I90" s="9">
+        <v>248.7</v>
+      </c>
+      <c r="J90" s="18">
+        <v>948</v>
+      </c>
+      <c r="K90" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>44362</v>
+      </c>
+      <c r="C91" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="D91" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="E91" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="F91" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="G91" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="H91" s="9">
+        <v>181</v>
+      </c>
+      <c r="I91" s="9">
+        <v>163</v>
+      </c>
+      <c r="J91" s="18">
+        <v>1263</v>
+      </c>
+      <c r="K91" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>44392</v>
+      </c>
+      <c r="C92" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="D92" s="9">
+        <v>29.7</v>
+      </c>
+      <c r="E92" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F92" s="9">
+        <v>36.5</v>
+      </c>
+      <c r="G92" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="H92" s="9">
+        <v>93</v>
+      </c>
+      <c r="I92" s="9">
+        <v>173.2</v>
+      </c>
+      <c r="J92" s="18">
+        <v>1496</v>
+      </c>
+      <c r="K92" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>44423</v>
+      </c>
+      <c r="C93" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="D93" s="9">
+        <v>29.6</v>
+      </c>
+      <c r="E93" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="F93" s="9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G93" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="H93" s="9">
+        <v>130</v>
+      </c>
+      <c r="I93" s="9">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="J93" s="18">
+        <v>1575</v>
+      </c>
+      <c r="K93" s="19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8">
+        <v>44454</v>
+      </c>
+      <c r="C94" s="9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D94" s="9">
+        <v>24</v>
+      </c>
+      <c r="E94" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="F94" s="9">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G94" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="H94" s="9">
+        <v>158.5</v>
+      </c>
+      <c r="I94" s="9">
+        <v>122.8</v>
+      </c>
+      <c r="J94" s="18">
+        <v>1250</v>
+      </c>
+      <c r="K94" s="19">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="8">
+        <v>44484</v>
+      </c>
+      <c r="C95" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="D95" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E95" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="F95" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="H95" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="I95" s="9">
+        <v>215.2</v>
+      </c>
+      <c r="J95" s="18">
+        <v>868</v>
+      </c>
+      <c r="K95" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8">
+        <v>44515</v>
+      </c>
+      <c r="C96" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D96" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="E96" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="F96" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="G96" s="9">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H96" s="9">
+        <v>91</v>
+      </c>
+      <c r="I96" s="9">
+        <v>132</v>
+      </c>
+      <c r="J96" s="18">
+        <v>819</v>
+      </c>
+      <c r="K96" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8">
+        <v>44545</v>
+      </c>
+      <c r="C97" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D97" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="E97" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F97" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>-9.6</v>
+      </c>
+      <c r="H97" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="I97" s="9">
+        <v>172.2</v>
+      </c>
+      <c r="J97" s="18">
+        <v>972</v>
+      </c>
+      <c r="K97" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="8">
+        <v>44212</v>
+      </c>
+      <c r="C98" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="D98" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="E98" s="9">
+        <v>-7.6</v>
+      </c>
+      <c r="F98" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="G98" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="H98" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="I98" s="9">
+        <v>201.6</v>
+      </c>
+      <c r="J98" s="18">
+        <v>808</v>
+      </c>
+      <c r="K98" s="19">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8">
+        <v>44243</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D99" s="9">
+        <v>8</v>
+      </c>
+      <c r="E99" s="9">
+        <v>-5.4</v>
+      </c>
+      <c r="F99" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G99" s="9">
+        <v>-10.7</v>
+      </c>
+      <c r="H99" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="I99" s="9">
+        <v>201.6</v>
+      </c>
+      <c r="J99" s="18">
+        <v>762</v>
+      </c>
+      <c r="K99" s="19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8">
+        <v>44271</v>
+      </c>
+      <c r="C100" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D100" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="E100" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="F100" s="9">
+        <v>22.1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>-10.1</v>
+      </c>
+      <c r="H100" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="I100" s="9">
+        <v>202.7</v>
+      </c>
+      <c r="J100" s="18">
+        <v>823</v>
+      </c>
+      <c r="K100" s="19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <v>44302</v>
+      </c>
+      <c r="C101" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="D101" s="9">
+        <v>19</v>
+      </c>
+      <c r="E101" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F101" s="9">
+        <v>28</v>
+      </c>
+      <c r="G101" s="9">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H101" s="9">
+        <v>67</v>
+      </c>
+      <c r="I101" s="9">
+        <v>205.1</v>
+      </c>
+      <c r="J101" s="18">
+        <v>867</v>
+      </c>
+      <c r="K101" s="19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8">
+        <v>44332</v>
+      </c>
+      <c r="C102" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="D102" s="9">
+        <v>24.1</v>
+      </c>
+      <c r="E102" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="F102" s="9">
+        <v>31</v>
+      </c>
+      <c r="G102" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="H102" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="I102" s="9">
+        <v>223.7</v>
+      </c>
+      <c r="J102" s="18">
+        <v>909</v>
+      </c>
+      <c r="K102" s="19">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>44363</v>
+      </c>
+      <c r="C103" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="D103" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="E103" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="F103" s="9">
+        <v>30.8</v>
+      </c>
+      <c r="G103" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="H103" s="9">
+        <v>117</v>
+      </c>
+      <c r="I103" s="9">
+        <v>159.4</v>
+      </c>
+      <c r="J103" s="18">
+        <v>1219</v>
+      </c>
+      <c r="K103" s="19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="7">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8">
+        <v>44393</v>
+      </c>
+      <c r="C104" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="D104" s="9">
+        <v>29.7</v>
+      </c>
+      <c r="E104" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="F104" s="9">
+        <v>34</v>
+      </c>
+      <c r="G104" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H104" s="9">
+        <v>41</v>
+      </c>
+      <c r="I104" s="9">
+        <v>198.3</v>
+      </c>
+      <c r="J104" s="18">
+        <v>1450</v>
+      </c>
+      <c r="K104" s="19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="8">
+        <v>44424</v>
+      </c>
+      <c r="C105" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="D105" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="E105" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F105" s="9">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G105" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="H105" s="9">
+        <v>209.5</v>
+      </c>
+      <c r="I105" s="9">
+        <v>197.8</v>
+      </c>
+      <c r="J105" s="18">
+        <v>1468</v>
+      </c>
+      <c r="K105" s="19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="7">
+        <v>104</v>
+      </c>
+      <c r="B106" s="8">
+        <v>44455</v>
+      </c>
+      <c r="C106" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="D106" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="E106" s="9">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F106" s="9">
+        <v>31.3</v>
+      </c>
+      <c r="G106" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="H106" s="9">
+        <v>232.5</v>
+      </c>
+      <c r="I106" s="9">
+        <v>102</v>
+      </c>
+      <c r="J106" s="18">
+        <v>1362</v>
+      </c>
+      <c r="K106" s="19">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8">
+        <v>44485</v>
+      </c>
+      <c r="C107" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="D107" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E107" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="F107" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="G107" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="H107" s="9">
+        <v>49</v>
+      </c>
+      <c r="I107" s="9">
+        <v>157.6</v>
+      </c>
+      <c r="J107" s="20">
+        <v>637</v>
+      </c>
+      <c r="K107" s="21">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="7">
+        <v>106</v>
+      </c>
+      <c r="B108" s="8">
+        <v>44516</v>
+      </c>
+      <c r="C108" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D108" s="9">
+        <v>12</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F108" s="9">
+        <v>21</v>
+      </c>
+      <c r="G108" s="9">
+        <v>-7.1</v>
+      </c>
+      <c r="H108" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="I108" s="9">
+        <v>159.4</v>
+      </c>
+      <c r="J108" s="18">
+        <v>558</v>
+      </c>
+      <c r="K108" s="19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="8">
+        <v>44546</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2</v>
+      </c>
+      <c r="D109" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E109" s="9">
+        <v>-4</v>
+      </c>
+      <c r="F109" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G109" s="9">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="H109" s="9">
+        <v>36.5</v>
+      </c>
+      <c r="I109" s="9">
+        <v>199.6</v>
+      </c>
+      <c r="J109" s="18">
+        <v>933</v>
+      </c>
+      <c r="K109" s="19">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="7">
+        <v>108</v>
+      </c>
+      <c r="B110" s="8">
+        <v>44213</v>
+      </c>
+      <c r="C110" s="9">
+        <v>-1.6</v>
+      </c>
+      <c r="D110" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E110" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="F110" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="G110" s="9">
+        <v>-13.2</v>
+      </c>
+      <c r="H110" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="I110" s="9">
+        <v>206.1</v>
+      </c>
+      <c r="J110" s="18">
+        <v>843</v>
+      </c>
+      <c r="K110" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <v>44244</v>
+      </c>
+      <c r="C111" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="D111" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="E111" s="9">
+        <v>-5.8</v>
+      </c>
+      <c r="F111" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="G111" s="9">
+        <v>-12.1</v>
+      </c>
+      <c r="H111" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I111" s="9">
+        <v>212.5</v>
+      </c>
+      <c r="J111" s="18">
+        <v>768</v>
+      </c>
+      <c r="K111" s="19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="7">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8">
+        <v>44272</v>
+      </c>
+      <c r="C112" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D112" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="E112" s="9">
+        <v>-3.7</v>
+      </c>
+      <c r="F112" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="G112" s="9">
+        <v>-9.5</v>
+      </c>
+      <c r="H112" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="I112" s="9">
+        <v>201.8</v>
+      </c>
+      <c r="J112" s="18">
+        <v>961</v>
+      </c>
+      <c r="K112" s="19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="8">
+        <v>44303</v>
+      </c>
+      <c r="C113" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D113" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E113" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="F113" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="G113" s="9">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="H113" s="9">
+        <v>36</v>
+      </c>
+      <c r="I113" s="9">
+        <v>225.8</v>
+      </c>
+      <c r="J113" s="18">
+        <v>668</v>
+      </c>
+      <c r="K113" s="19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="7">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8">
+        <v>44333</v>
+      </c>
+      <c r="C114" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="D114" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="E114" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F114" s="9">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H114" s="9">
+        <v>40</v>
+      </c>
+      <c r="I114" s="9">
+        <v>219.7</v>
+      </c>
+      <c r="J114" s="18">
+        <v>829</v>
+      </c>
+      <c r="K114" s="19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="8">
+        <v>44364</v>
+      </c>
+      <c r="C115" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="D115" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="E115" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="F115" s="9">
+        <v>31</v>
+      </c>
+      <c r="G115" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H115" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I115" s="9">
+        <v>213.2</v>
+      </c>
+      <c r="J115" s="18">
+        <v>1125</v>
+      </c>
+      <c r="K115" s="19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="7">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <v>44394</v>
+      </c>
+      <c r="C116" s="9">
+        <v>24.3</v>
+      </c>
+      <c r="D116" s="9">
+        <v>30.4</v>
+      </c>
+      <c r="E116" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="F116" s="9">
+        <v>33.5</v>
+      </c>
+      <c r="G116" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H116" s="9">
+        <v>129.5</v>
+      </c>
+      <c r="I116" s="9">
+        <v>175.1</v>
+      </c>
+      <c r="J116" s="18">
+        <v>1225</v>
+      </c>
+      <c r="K116" s="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="8">
+        <v>44425</v>
+      </c>
+      <c r="C117" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="D117" s="9">
+        <v>29.3</v>
+      </c>
+      <c r="E117" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="F117" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="G117" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="H117" s="9">
+        <v>102</v>
+      </c>
+      <c r="I117" s="9">
+        <v>161.1</v>
+      </c>
+      <c r="J117" s="18">
+        <v>1425</v>
+      </c>
+      <c r="K117" s="19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="7">
+        <v>116</v>
+      </c>
+      <c r="B118" s="8">
+        <v>44456</v>
+      </c>
+      <c r="C118" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D118" s="9">
+        <v>24.9</v>
+      </c>
+      <c r="E118" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="F118" s="9">
+        <v>30.2</v>
+      </c>
+      <c r="G118" s="9">
+        <v>6</v>
+      </c>
+      <c r="H118" s="9">
+        <v>50</v>
+      </c>
+      <c r="I118" s="9">
+        <v>171.7</v>
+      </c>
+      <c r="J118" s="18">
+        <v>1373</v>
+      </c>
+      <c r="K118" s="19">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="8">
+        <v>44486</v>
+      </c>
+      <c r="C119" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="D119" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="E119" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="F119" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="G119" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="H119" s="9">
+        <v>331</v>
+      </c>
+      <c r="I119" s="9">
+        <v>100.4</v>
+      </c>
+      <c r="J119" s="18">
+        <v>885</v>
+      </c>
+      <c r="K119" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="7">
+        <v>118</v>
+      </c>
+      <c r="B120" s="8">
+        <v>44517</v>
+      </c>
+      <c r="C120" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D120" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="E120" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="F120" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="G120" s="9">
+        <v>-6.1</v>
+      </c>
+      <c r="H120" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="I120" s="9">
+        <v>191.4</v>
+      </c>
+      <c r="J120" s="18">
+        <v>553</v>
+      </c>
+      <c r="K120" s="19">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="8">
+        <v>44547</v>
+      </c>
+      <c r="C121" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="D121" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="E121" s="9">
+        <v>-6.6</v>
+      </c>
+      <c r="F121" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="G121" s="9">
+        <v>-10.1</v>
+      </c>
+      <c r="H121" s="9">
+        <v>6</v>
+      </c>
+      <c r="I121" s="9">
+        <v>218.7</v>
+      </c>
+      <c r="J121" s="18">
+        <v>810</v>
+      </c>
+      <c r="K121" s="19">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="7">
+        <v>120</v>
+      </c>
+      <c r="B122" s="8">
+        <v>44214</v>
+      </c>
+      <c r="C122" s="9">
+        <v>-1.6</v>
+      </c>
+      <c r="D122" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E122" s="9">
+        <v>-7.1</v>
+      </c>
+      <c r="F122" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="G122" s="9">
+        <v>-13.4</v>
+      </c>
+      <c r="H122" s="9">
+        <v>13</v>
+      </c>
+      <c r="I122" s="9">
+        <v>221.8</v>
+      </c>
+      <c r="J122" s="18">
+        <v>562</v>
+      </c>
+      <c r="K122" s="19">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="8">
+        <v>44245</v>
+      </c>
+      <c r="C123" s="9">
+        <v>-1.2</v>
+      </c>
+      <c r="D123" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E123" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="F123" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="G123" s="9">
+        <v>-12.6</v>
+      </c>
+      <c r="H123" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="I123" s="9">
+        <v>200.9</v>
+      </c>
+      <c r="J123" s="18">
+        <v>594</v>
+      </c>
+      <c r="K123" s="19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="7">
+        <v>122</v>
+      </c>
+      <c r="B124" s="8">
+        <v>44273</v>
+      </c>
+      <c r="C124" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D124" s="9">
+        <v>14</v>
+      </c>
+      <c r="E124" s="9">
+        <v>-1.6</v>
+      </c>
+      <c r="F124" s="9">
+        <v>24.3</v>
+      </c>
+      <c r="G124" s="9">
+        <v>-6.4</v>
+      </c>
+      <c r="H124" s="9">
+        <v>79.5</v>
+      </c>
+      <c r="I124" s="9">
+        <v>224.8</v>
+      </c>
+      <c r="J124" s="18">
+        <v>1063</v>
+      </c>
+      <c r="K124" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="8">
+        <v>44304</v>
+      </c>
+      <c r="C125" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="D125" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="E125" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="F125" s="9">
+        <v>30.2</v>
+      </c>
+      <c r="G125" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="H125" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="I125" s="9">
+        <v>230.9</v>
+      </c>
+      <c r="J125" s="18">
+        <v>788</v>
+      </c>
+      <c r="K125" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="7">
+        <v>124</v>
+      </c>
+      <c r="B126" s="8">
+        <v>44334</v>
+      </c>
+      <c r="C126" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D126" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="E126" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F126" s="9">
+        <v>31.1</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H126" s="9">
+        <v>123.5</v>
+      </c>
+      <c r="I126" s="9">
+        <v>211.7</v>
+      </c>
+      <c r="J126" s="18">
+        <v>893</v>
+      </c>
+      <c r="K126" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="8">
+        <v>44365</v>
+      </c>
+      <c r="C127" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D127" s="9">
+        <v>25.7</v>
+      </c>
+      <c r="E127" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="F127" s="9">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G127" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H127" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="I127" s="9">
+        <v>206.5</v>
+      </c>
+      <c r="J127" s="18">
+        <v>1130</v>
+      </c>
+      <c r="K127" s="19">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="7">
+        <v>126</v>
+      </c>
+      <c r="B128" s="8">
+        <v>44395</v>
+      </c>
+      <c r="C128" s="9">
+        <v>25.3</v>
+      </c>
+      <c r="D128" s="9">
+        <v>31.8</v>
+      </c>
+      <c r="E128" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="F128" s="9">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G128" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H128" s="9">
+        <v>134.5</v>
+      </c>
+      <c r="I128" s="9">
+        <v>237</v>
+      </c>
+      <c r="J128" s="18">
+        <v>1346</v>
+      </c>
+      <c r="K128" s="19">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>44426</v>
+      </c>
+      <c r="C129" s="9">
+        <v>24.7</v>
+      </c>
+      <c r="D129" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="E129" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F129" s="9">
+        <v>36.6</v>
+      </c>
+      <c r="G129" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H129" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="I129" s="9">
+        <v>225.9</v>
+      </c>
+      <c r="J129" s="18">
+        <v>1409</v>
+      </c>
+      <c r="K129" s="19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="7">
+        <v>128</v>
+      </c>
+      <c r="B130" s="8">
+        <v>44457</v>
+      </c>
+      <c r="C130" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="D130" s="9">
+        <v>24</v>
+      </c>
+      <c r="E130" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="F130" s="9">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G130" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H130" s="9">
+        <v>238.5</v>
+      </c>
+      <c r="I130" s="9">
+        <v>95.1</v>
+      </c>
+      <c r="J130" s="18">
+        <v>1277</v>
+      </c>
+      <c r="K130" s="19">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="8">
+        <v>44487</v>
+      </c>
+      <c r="C131" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="D131" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E131" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="F131" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H131" s="9">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9">
+        <v>182</v>
+      </c>
+      <c r="J131" s="18">
+        <v>836</v>
+      </c>
+      <c r="K131" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="7">
+        <v>130</v>
+      </c>
+      <c r="B132" s="8">
+        <v>44518</v>
+      </c>
+      <c r="C132" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="D132" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="F132" s="9">
+        <v>22</v>
+      </c>
+      <c r="G132" s="9">
+        <v>-4.7</v>
+      </c>
+      <c r="H132" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I132" s="9">
+        <v>192.9</v>
+      </c>
+      <c r="J132" s="18">
+        <v>766</v>
+      </c>
+      <c r="K132" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="8">
+        <v>44548</v>
+      </c>
+      <c r="C133" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D133" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E133" s="9">
+        <v>-3.2</v>
+      </c>
+      <c r="F133" s="9">
+        <v>22.7</v>
+      </c>
+      <c r="G133" s="9">
+        <v>-10</v>
+      </c>
+      <c r="H133" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="I133" s="9">
+        <v>180.5</v>
+      </c>
+      <c r="J133" s="18">
+        <v>988</v>
+      </c>
+      <c r="K133" s="19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="7">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>44215</v>
+      </c>
+      <c r="C134" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="D134" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E134" s="9">
+        <v>-8.4</v>
+      </c>
+      <c r="F134" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G134" s="9">
+        <v>-12.1</v>
+      </c>
+      <c r="H134" s="9">
+        <v>10</v>
+      </c>
+      <c r="I134" s="9">
+        <v>225.1</v>
+      </c>
+      <c r="J134" s="22">
+        <v>687</v>
+      </c>
+      <c r="K134" s="23">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="8">
+        <v>44246</v>
+      </c>
+      <c r="C135" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D135" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E135" s="9">
+        <v>-5.9</v>
+      </c>
+      <c r="F135" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="G135" s="9">
+        <v>-11.7</v>
+      </c>
+      <c r="H135" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="I135" s="9">
+        <v>187.8</v>
+      </c>
+      <c r="J135" s="22">
+        <v>788</v>
+      </c>
+      <c r="K135" s="23">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="7">
+        <v>134</v>
+      </c>
+      <c r="B136" s="8">
+        <v>44274</v>
+      </c>
+      <c r="C136" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D136" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="E136" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F136" s="9">
+        <v>21</v>
+      </c>
+      <c r="G136" s="9">
+        <v>-7</v>
+      </c>
+      <c r="H136" s="9">
+        <v>55.5</v>
+      </c>
+      <c r="I136" s="9">
+        <v>201.4</v>
+      </c>
+      <c r="J136" s="22">
+        <v>895</v>
+      </c>
+      <c r="K136" s="23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="7">
+        <v>135</v>
+      </c>
+      <c r="B137" s="8">
+        <v>44305</v>
+      </c>
+      <c r="C137" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D137" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="E137" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F137" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="G137" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="H137" s="9">
+        <v>33</v>
+      </c>
+      <c r="I137" s="9">
+        <v>211.4</v>
+      </c>
+      <c r="J137" s="22">
+        <v>693</v>
+      </c>
+      <c r="K137" s="23">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="7">
+        <v>136</v>
+      </c>
+      <c r="B138" s="8">
+        <v>44335</v>
+      </c>
+      <c r="C138" s="9">
+        <v>16</v>
+      </c>
+      <c r="D138" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="E138" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="F138" s="9">
+        <v>33</v>
+      </c>
+      <c r="G138" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="H138" s="9">
+        <v>59.5</v>
+      </c>
+      <c r="I138" s="9">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="J138" s="22">
+        <v>880</v>
+      </c>
+      <c r="K138" s="23">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="7">
+        <v>137</v>
+      </c>
+      <c r="B139" s="8">
+        <v>44366</v>
+      </c>
+      <c r="C139" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="D139" s="9">
+        <v>24.7</v>
+      </c>
+      <c r="E139" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="F139" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="G139" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="H139" s="9">
+        <v>173.5</v>
+      </c>
+      <c r="I139" s="9">
+        <v>164.6</v>
+      </c>
+      <c r="J139" s="22">
+        <v>1126</v>
+      </c>
+      <c r="K139" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="7">
+        <v>138</v>
+      </c>
+      <c r="B140" s="8">
+        <v>44396</v>
+      </c>
+      <c r="C140" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="D140" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="E140" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="F140" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G140" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="H140" s="9">
+        <v>144.5</v>
+      </c>
+      <c r="I140" s="9">
+        <v>118.6</v>
+      </c>
+      <c r="J140" s="22">
+        <v>1284</v>
+      </c>
+      <c r="K140" s="23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="7">
+        <v>139</v>
+      </c>
+      <c r="B141" s="8">
+        <v>44427</v>
+      </c>
+      <c r="C141" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="D141" s="9">
+        <v>31.4</v>
+      </c>
+      <c r="E141" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="F141" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G141" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="H141" s="9">
+        <v>142</v>
+      </c>
+      <c r="I141" s="9">
+        <v>187.9</v>
+      </c>
+      <c r="J141" s="22">
+        <v>1368</v>
+      </c>
+      <c r="K141" s="23">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="7">
+        <v>140</v>
+      </c>
+      <c r="B142" s="8">
+        <v>44458</v>
+      </c>
+      <c r="C142" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="D142" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="E142" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F142" s="9">
+        <v>33.6</v>
+      </c>
+      <c r="G142" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H142" s="9">
+        <v>68.5</v>
+      </c>
+      <c r="I142" s="9">
+        <v>172</v>
+      </c>
+      <c r="J142" s="22">
+        <v>1330</v>
+      </c>
+      <c r="K142" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="7">
+        <v>141</v>
+      </c>
+      <c r="B143" s="8">
+        <v>44488</v>
+      </c>
+      <c r="C143" s="9">
+        <v>15</v>
+      </c>
+      <c r="D143" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E143" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="F143" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="G143" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="H143" s="9">
+        <v>471</v>
+      </c>
+      <c r="I143" s="9">
+        <v>119.4</v>
+      </c>
+      <c r="J143" s="22">
+        <v>918</v>
+      </c>
+      <c r="K143" s="23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="7">
+        <v>142</v>
+      </c>
+      <c r="B144" s="8">
+        <v>44519</v>
+      </c>
+      <c r="C144" s="9">
+        <v>7</v>
+      </c>
+      <c r="D144" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
+      <c r="F144" s="9">
+        <v>22.1</v>
+      </c>
+      <c r="G144" s="9">
+        <v>-5</v>
+      </c>
+      <c r="H144" s="9">
+        <v>16</v>
+      </c>
+      <c r="I144" s="9">
+        <v>198.4</v>
+      </c>
+      <c r="J144" s="22">
+        <v>764</v>
+      </c>
+      <c r="K144" s="23">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="21" thickBot="1">
+      <c r="A145" s="7">
+        <v>143</v>
+      </c>
+      <c r="B145" s="24">
+        <v>44549</v>
+      </c>
+      <c r="C145" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="D145" s="25">
+        <v>9</v>
+      </c>
+      <c r="E145" s="25">
+        <v>-3.4</v>
+      </c>
+      <c r="F145" s="25">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G145" s="25">
+        <v>-7.6</v>
+      </c>
+      <c r="H145" s="25">
+        <v>23.5</v>
+      </c>
+      <c r="I145" s="25">
+        <v>178.8</v>
+      </c>
+      <c r="J145" s="26">
+        <v>956</v>
+      </c>
+      <c r="K145" s="27">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>